--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>3,22; 9,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,87</t>
+          <t>7,17; 13,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,88</t>
+          <t>16,63; 26,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,71</t>
+          <t>14,02; 20,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,95</t>
+          <t>10,79; 16,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,07</t>
+          <t>11,19; 15,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,37</t>
+          <t>3,67; 8,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,54</t>
+          <t>2,75; 6,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>8,83; 15,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,81</t>
+          <t>11,55; 18,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,8</t>
+          <t>5,4; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,85</t>
+          <t>23,73; 30,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,23</t>
+          <t>8,16; 12,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,34</t>
+          <t>4,42; 7,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,38; 22,67</t>
+          <t>17,5; 22,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,56</t>
+          <t>3,35; 8,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,0</t>
+          <t>3,23; 8,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,53</t>
+          <t>11,92; 19,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,64</t>
+          <t>9,19; 16,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,09</t>
+          <t>9,14; 17,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,64; 30,41</t>
+          <t>22,2; 29,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,59</t>
+          <t>7,1; 11,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,36</t>
+          <t>6,76; 11,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,71</t>
+          <t>18,83; 24,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,85</t>
+          <t>4,25; 8,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>6,23; 12,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,76</t>
+          <t>11,64; 19,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 22,28</t>
+          <t>15,77; 22,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,85</t>
+          <t>14,16; 22,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,18</t>
+          <t>21,46; 30,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,52</t>
+          <t>10,62; 14,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,92; 16,14</t>
+          <t>11,01; 16,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,16; 24,06</t>
+          <t>18,28; 24,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,23</t>
+          <t>9,44; 19,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,53</t>
+          <t>4,96; 13,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,35</t>
+          <t>6,93; 14,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,95</t>
+          <t>27,01; 39,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,63</t>
+          <t>12,58; 21,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,94</t>
+          <t>13,12; 22,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,49; 27,9</t>
+          <t>19,72; 27,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,61; 16,08</t>
+          <t>9,48; 15,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,8</t>
+          <t>11,51; 17,57</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,75</t>
+          <t>7,67; 15,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,13</t>
+          <t>4,54; 11,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,98</t>
+          <t>15,36; 23,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,35</t>
+          <t>11,66; 21,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,34</t>
+          <t>9,78; 18,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,9</t>
+          <t>28,0; 37,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,71</t>
+          <t>10,87; 17,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,41</t>
+          <t>7,76; 13,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>22,65; 28,97</t>
+          <t>23,19; 29,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,29</t>
+          <t>4,34; 7,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,26</t>
+          <t>5,7; 10,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,01</t>
+          <t>13,84; 20,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,6</t>
+          <t>12,79; 18,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,9</t>
+          <t>9,89; 15,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,27; 37,51</t>
+          <t>18,19; 37,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,78</t>
+          <t>8,97; 12,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,69; 11,97</t>
+          <t>8,55; 12,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>18,83; 27,93</t>
+          <t>19,16; 28,01</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,08</t>
+          <t>4,02; 7,15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,5</t>
+          <t>5,04; 8,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,9</t>
+          <t>7,78; 12,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,6</t>
+          <t>10,7; 15,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,7</t>
+          <t>9,09; 13,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,8; 25,33</t>
+          <t>19,69; 25,21</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,9</t>
+          <t>7,94; 10,89</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,39</t>
+          <t>7,64; 10,55</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>14,13; 18,14</t>
+          <t>14,02; 17,84</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,36</t>
+          <t>3,47; 9,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 26,97</t>
+          <t>16,56; 26,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,83</t>
+          <t>10,79; 17,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,4</t>
+          <t>3,72; 8,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,26</t>
+          <t>2,81; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 18,11</t>
+          <t>11,61; 18,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,89</t>
+          <t>5,28; 10,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,14</t>
+          <t>8,27; 12,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,55</t>
+          <t>4,29; 7,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,66</t>
+          <t>3,44; 8,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,23</t>
+          <t>3,24; 7,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,67</t>
+          <t>9,55; 17,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,21</t>
+          <t>9,05; 16,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,78</t>
+          <t>6,9; 11,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,47</t>
+          <t>6,91; 11,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,15</t>
+          <t>4,18; 7,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 12,03</t>
+          <t>6,26; 12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,31</t>
+          <t>16,08; 22,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 22,1</t>
+          <t>13,86; 22,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,62; 14,42</t>
+          <t>10,71; 14,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,01; 16,03</t>
+          <t>11,03; 16,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,44; 19,44</t>
+          <t>8,98; 19,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,21</t>
+          <t>4,82; 13,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,58</t>
+          <t>27,05; 40,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,69</t>
+          <t>12,24; 21,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,72; 27,87</t>
+          <t>19,69; 28,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,83</t>
+          <t>9,53; 15,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,34</t>
+          <t>7,46; 15,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,03</t>
+          <t>4,24; 11,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,66; 21,33</t>
+          <t>12,28; 21,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,78; 18,52</t>
+          <t>9,63; 18,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,05</t>
+          <t>10,93; 16,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,23</t>
+          <t>8,02; 13,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,96</t>
+          <t>4,46; 8,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,27</t>
+          <t>5,82; 10,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,86</t>
+          <t>12,89; 18,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,17</t>
+          <t>9,92; 15,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,97; 12,68</t>
+          <t>9,25; 12,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,1</t>
+          <t>8,54; 12,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -2197,12 +2197,12 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,15</t>
+          <t>3,92; 7,22</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,54</t>
+          <t>4,94; 8,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,7; 15,82</t>
+          <t>10,78; 15,52</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,94; 10,89</t>
+          <t>7,92; 10,78</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,64; 10,55</t>
+          <t>7,43; 10,62</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">

--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,37</t>
+          <t>3,43; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 13,89</t>
+          <t>6,79; 13,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,56; 26,65</t>
+          <t>16,86; 26,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,38</t>
+          <t>14,15; 20,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 17,06</t>
+          <t>10,86; 16,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,81</t>
+          <t>11,34; 16,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,3</t>
+          <t>3,95; 8,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,49</t>
+          <t>2,77; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,66</t>
+          <t>9,15; 15,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 18,38</t>
+          <t>11,38; 17,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,17</t>
+          <t>5,17; 9,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,73; 30,73</t>
+          <t>24,18; 30,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,22</t>
+          <t>8,43; 12,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,42</t>
+          <t>4,51; 7,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 22,35</t>
+          <t>17,38; 22,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,78</t>
+          <t>3,39; 8,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,83</t>
+          <t>3,09; 8,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 19,53</t>
+          <t>11,87; 19,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 17,15</t>
+          <t>8,99; 16,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,85</t>
+          <t>8,99; 17,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 29,87</t>
+          <t>22,64; 30,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,61</t>
+          <t>7,12; 11,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,39</t>
+          <t>6,85; 11,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,83; 24,07</t>
+          <t>18,59; 23,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 7,99</t>
+          <t>4,1; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,44</t>
+          <t>6,07; 12,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 19,46</t>
+          <t>11,45; 19,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,11</t>
+          <t>15,98; 22,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,86; 22,18</t>
+          <t>13,86; 21,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,46; 30,87</t>
+          <t>21,53; 30,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 14,3</t>
+          <t>10,71; 14,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,25</t>
+          <t>10,92; 16,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,28; 24,52</t>
+          <t>18,16; 24,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,98; 19,54</t>
+          <t>9,31; 19,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 13,15</t>
+          <t>4,83; 12,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,93; 14,45</t>
+          <t>6,95; 14,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,05; 40,58</t>
+          <t>26,73; 39,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,24; 21,97</t>
+          <t>12,33; 22,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,76</t>
+          <t>11,87; 21,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,69; 28,08</t>
+          <t>19,49; 27,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,73</t>
+          <t>9,61; 16,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,57</t>
+          <t>11,6; 17,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,54</t>
+          <t>7,17; 14,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,38</t>
+          <t>4,44; 11,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,36; 23,81</t>
+          <t>15,32; 22,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,43</t>
+          <t>12,02; 21,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,94</t>
+          <t>9,72; 18,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>28,0; 37,44</t>
+          <t>28,53; 37,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,92</t>
+          <t>10,59; 16,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>8,02; 13,54</t>
+          <t>8,15; 13,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>23,19; 29,04</t>
+          <t>22,65; 28,97</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,28</t>
+          <t>4,49; 8,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,37</t>
+          <t>5,84; 10,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,2</t>
+          <t>13,85; 20,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,69</t>
+          <t>12,84; 18,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,0</t>
+          <t>9,83; 14,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,19; 37,3</t>
+          <t>19,27; 37,51</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 12,73</t>
+          <t>9,2; 12,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,54; 12,27</t>
+          <t>8,69; 11,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,16; 28,01</t>
+          <t>18,83; 27,93</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,22</t>
+          <t>3,85; 7,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,64</t>
+          <t>4,91; 8,5</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,39</t>
+          <t>7,71; 11,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,78; 15,52</t>
+          <t>10,9; 15,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,7</t>
+          <t>9,12; 13,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,69; 25,21</t>
+          <t>19,8; 25,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,92; 10,78</t>
+          <t>7,93; 10,9</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,43; 10,62</t>
+          <t>7,57; 10,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>14,02; 17,84</t>
+          <t>14,13; 18,14</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,49</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,17</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>13,6</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>13,6</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 6,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,22</t>
+          <t>1,82; 9,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,87</t>
+          <t>-3,82; 10,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,18; 4,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,88</t>
+          <t>-1,04; 7,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 16,95</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,34; 16,07</t>
+          <t>-2,12; 5,51</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>152,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -791,47 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,23; 250,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,38; 408,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 71,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,62; 27,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 75,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-16,37; 62,95</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,55</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,24</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>19,84</t>
+          <t>9,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,37</t>
+          <t>-4,71; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,54</t>
+          <t>1,68; 9,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,81</t>
+          <t>-11,02; -3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,81</t>
+          <t>8,19; 17,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,8</t>
+          <t>-7,05; -2,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,85</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>8,43; 12,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,51; 7,34</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>17,38; 22,67</t>
+          <t>6,06; 12,38</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>100,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-49,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-43,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>89,26%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,31; 35,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,44; 225,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,21; -27,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,69; 143,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,84; -22,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>51,08; 138,72</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>9,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,46</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>13,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,1</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,17</t>
+          <t>11,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,56</t>
+          <t>-4,49; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 8,0</t>
+          <t>4,94; 14,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 19,53</t>
+          <t>-5,57; 5,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,64</t>
+          <t>7,88; 18,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 17,09</t>
+          <t>-3,4; 2,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,64; 30,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,12; 11,59</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 11,36</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>18,59; 23,71</t>
+          <t>8,05; 15,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>170,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>105,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>126,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,57; 82,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,6; 357,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,2; 59,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,38; 186,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,27; 39,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>69,43; 203,85</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,98</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,9</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,7</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>12,42</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>21,1</t>
+          <t>5,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,85</t>
+          <t>-2,65; 5,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,44</t>
+          <t>2,14; 12,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 19,76</t>
+          <t>-7,11; 3,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 22,28</t>
+          <t>-7,81; 8,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,86; 21,85</t>
+          <t>-4,0; 3,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,18</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 14,52</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>10,92; 16,14</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>18,16; 24,06</t>
+          <t>-0,16; 9,45</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-8,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>37,9%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,32; 103,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,95; 209,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,67; 22,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,66; 49,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,76; 27,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-0,42; 77,85</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,64</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>-16,36</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33,07</t>
+          <t>-16,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,71</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>23,51</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>12,55</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>14,68</t>
+          <t>-9,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,31; 19,23</t>
+          <t>-11,54; 0,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 12,53</t>
+          <t>-9,82; 2,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,95; 14,35</t>
+          <t>-24,6; -8,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,73; 39,95</t>
+          <t>-26,95; -9,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,33; 22,63</t>
+          <t>-16,37; -6,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,87; 21,94</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 27,9</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>9,61; 16,08</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>11,6; 17,8</t>
+          <t>-15,14; -4,34</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-39,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-49,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-50,26%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-40,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,2; 7,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,77; 25,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,54; -27,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,57; -30,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,65; -28,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-59,03; -21,89</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18,91</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>13,71</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>10,37</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>25,93</t>
+          <t>11,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,17; 14,75</t>
+          <t>-8,95; 1,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,13</t>
+          <t>2,19; 12,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,98</t>
+          <t>-8,81; 3,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12,02; 21,35</t>
+          <t>9,51; 22,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,34</t>
+          <t>-7,49; 0,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>28,53; 37,9</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 16,71</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>8,15; 13,41</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>22,65; 28,97</t>
+          <t>7,3; 15,66</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-34,91%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>69,12%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>101,25%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-24,37%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>86,68%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,97; 21,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,74; 164,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,61; 27,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,63; 178,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,41; 5,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>45,09; 138,22</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>16,69</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>12,32</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>31,11</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>10,91</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>24,79</t>
+          <t>11,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,29</t>
+          <t>-0,88; 4,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,26</t>
+          <t>6,52; 13,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,85; 20,01</t>
+          <t>-6,7; 0,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,6</t>
+          <t>-3,42; 22,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,9</t>
+          <t>-2,96; 1,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,27; 37,51</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>9,2; 12,78</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>8,69; 11,97</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>18,83; 27,93</t>
+          <t>2,05; 16,37</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>165,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-20,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>106,31%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,01; 96,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,03; 270,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,02; 5,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 152,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,72; 18,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>24,08; 159,51</t>
         </is>
       </c>
     </row>
@@ -2144,47 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>22,24</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>16,09</t>
+          <t>4,83</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,08</t>
+          <t>-1,35; 3,51</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,5</t>
+          <t>-2,37; 6,1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,9</t>
+          <t>-4,94; 1,67</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,6</t>
+          <t>5,77; 13,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,7</t>
+          <t>-2,32; 1,75</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>19,8; 25,33</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 10,9</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 10,39</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 18,14</t>
+          <t>-1,47; 8,15</t>
         </is>
       </c>
     </row>
@@ -2250,47 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,86%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>51,75%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,68; 80,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,62; 126,71</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,86; 15,49</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,96; 118,1</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; 21,21</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-11,82; 95,06</t>
         </is>
       </c>
     </row>
@@ -2360,47 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>16,31</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>25,72</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>11,57</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>19,86</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -2413,47 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>-1,08; 1,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>2,94; 7,34</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>-5,02; -1,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>4,04; 10,56</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>-2,7; -0,6</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 12,47</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 10,71</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
+          <t>4,42; 8,55</t>
         </is>
       </c>
     </row>
@@ -2466,47 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-14,02%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>59,49%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; 21,61</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,36; 122,43</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; -10,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,77; 67,51</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,21; -5,48</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>37,47; 76,9</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2003,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 6,0</t>
+          <t>-1,15; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 9,7</t>
+          <t>1,82; 9,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 10,32</t>
+          <t>-3,61; 10,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 4,0</t>
+          <t>-7,36; 4,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,02</t>
+          <t>-1,23; 6,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 5,51</t>
+          <t>-1,91; 5,66</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 250,88</t>
+          <t>-26,28; 254,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,38; 408,57</t>
+          <t>21,5; 400,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 71,97</t>
+          <t>-16,65; 68,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 27,2</t>
+          <t>-32,82; 30,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 75,84</t>
+          <t>-8,86; 78,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 62,95</t>
+          <t>-14,59; 65,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,34</t>
+          <t>-4,56; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,79</t>
+          <t>2,14; 9,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -3,36</t>
+          <t>-11,29; -3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,24</t>
+          <t>7,97; 16,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -2,11</t>
+          <t>-6,93; -1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,38</t>
+          <t>6,07; 12,23</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,31; 35,23</t>
+          <t>-60,08; 31,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 225,98</t>
+          <t>27,31; 233,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,21; -27,28</t>
+          <t>-66,85; -25,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,69; 143,39</t>
+          <t>44,64; 139,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -22,83</t>
+          <t>-58,89; -21,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,08; 138,72</t>
+          <t>51,72; 138,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 3,04</t>
+          <t>-3,82; 2,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 14,09</t>
+          <t>4,9; 13,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 5,68</t>
+          <t>-5,27; 5,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,47</t>
+          <t>7,85; 18,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,99</t>
+          <t>-3,35; 3,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,01</t>
+          <t>7,98; 15,12</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,57; 82,26</t>
+          <t>-51,96; 81,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>53,6; 357,87</t>
+          <t>55,3; 364,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 59,15</t>
+          <t>-34,71; 50,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,38; 186,35</t>
+          <t>47,25; 193,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 39,5</t>
+          <t>-31,81; 42,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,43; 203,85</t>
+          <t>69,48; 203,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 5,63</t>
+          <t>-2,74; 5,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 12,35</t>
+          <t>2,55; 12,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 3,68</t>
+          <t>-7,64; 3,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 8,72</t>
+          <t>-6,39; 9,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,22</t>
+          <t>-3,91; 3,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 9,45</t>
+          <t>-0,32; 9,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 103,82</t>
+          <t>-31,05; 90,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 209,75</t>
+          <t>24,27; 214,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 22,24</t>
+          <t>-33,14; 25,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 49,33</t>
+          <t>-31,2; 54,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 27,07</t>
+          <t>-25,57; 29,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 77,85</t>
+          <t>-1,92; 80,05</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,68</t>
+          <t>-11,7; 0,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 2,66</t>
+          <t>-9,87; 2,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-24,6; -8,26</t>
+          <t>-24,84; -8,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,95; -9,04</t>
+          <t>-26,8; -8,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,37; -6,03</t>
+          <t>-16,37; -5,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -4,34</t>
+          <t>-16,14; -4,71</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-67,2; 7,28</t>
+          <t>-68,79; 12,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 25,85</t>
+          <t>-53,37; 25,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,54; -27,07</t>
+          <t>-64,7; -27,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,57; -30,92</t>
+          <t>-74,44; -30,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,65; -28,27</t>
+          <t>-60,61; -27,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-59,03; -21,89</t>
+          <t>-61,8; -23,4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 1,37</t>
+          <t>-9,4; 0,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,65</t>
+          <t>1,35; 12,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 3,58</t>
+          <t>-9,2; 2,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,95</t>
+          <t>10,22; 23,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 0,55</t>
+          <t>-7,61; 0,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,3; 15,66</t>
+          <t>7,21; 16,01</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-64,97; 21,67</t>
+          <t>-66,11; 13,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,74; 164,62</t>
+          <t>6,98; 149,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 27,17</t>
+          <t>-45,61; 22,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>46,63; 178,1</t>
+          <t>49,5; 176,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 5,17</t>
+          <t>-46,4; 9,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>45,09; 138,22</t>
+          <t>44,8; 140,55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,88</t>
+          <t>-1,37; 4,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,52; 13,46</t>
+          <t>6,42; 13,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,79</t>
+          <t>-6,89; 0,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 22,1</t>
+          <t>-3,14; 21,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,65</t>
+          <t>-3,22; 1,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,05; 16,37</t>
+          <t>2,2; 16,25</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 96,48</t>
+          <t>-17,58; 104,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>85,03; 270,42</t>
+          <t>86,75; 281,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 5,66</t>
+          <t>-39,65; 7,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 152,91</t>
+          <t>-17,62; 148,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 18,33</t>
+          <t>-26,89; 17,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>24,08; 159,51</t>
+          <t>23,61; 158,63</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 3,51</t>
+          <t>-0,89; 3,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 6,1</t>
+          <t>-2,87; 6,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,67</t>
+          <t>-5,29; 1,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,08</t>
+          <t>6,09; 13,18</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,75</t>
+          <t>-2,34; 1,82</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,15</t>
+          <t>-0,86; 8,18</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 80,75</t>
+          <t>-13,69; 94,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 126,71</t>
+          <t>-41,37; 122,51</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 15,49</t>
+          <t>-36,12; 13,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>38,96; 118,1</t>
+          <t>41,02; 119,52</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 21,21</t>
+          <t>-23,2; 22,74</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 95,06</t>
+          <t>-7,99; 92,86</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,34</t>
+          <t>-1,21; 1,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,34</t>
+          <t>2,77; 7,39</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,02; -1,62</t>
+          <t>-5,2; -1,64</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,56</t>
+          <t>3,35; 10,33</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,6</t>
+          <t>-2,65; -0,52</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,55</t>
+          <t>4,63; 8,52</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 21,61</t>
+          <t>-16,8; 21,11</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>44,36; 122,43</t>
+          <t>43,17; 120,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,02; -10,35</t>
+          <t>-29,28; -10,49</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>23,77; 67,51</t>
+          <t>20,95; 66,58</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-22,21; -5,48</t>
+          <t>-22,3; -5,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>37,47; 76,9</t>
+          <t>39,12; 76,38</t>
         </is>
       </c>
     </row>
